--- a/ooooo/3.22.300.ss.1.xlsx
+++ b/ooooo/3.22.300.ss.1.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workroom\send_data\ooooo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970C8E54-9E2B-4F22-A0A9-22647B28C21D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27555" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245">
   <si>
     <t>王叶萍</t>
   </si>
@@ -1967,9 +1961,6 @@
   </si>
   <si>
     <t>2019-03-22 06:51:12</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>李含章</t>
@@ -3763,32 +3754,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3796,24 +4123,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4135,22 +4748,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:G343"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A165" sqref="$A165:$XFD165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4173,7 +4785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4196,7 +4808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4219,7 +4831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4242,7 +4854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4265,7 +4877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4288,7 +4900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4311,7 +4923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4334,7 +4946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4380,7 +4992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -4403,7 +5015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -4426,7 +5038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -4449,7 +5061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -4472,7 +5084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -4495,7 +5107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -4518,7 +5130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -4541,7 +5153,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -4564,7 +5176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -4587,7 +5199,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -4610,7 +5222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -4633,7 +5245,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -4656,7 +5268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4679,7 +5291,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -4702,7 +5314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -4725,7 +5337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -4748,7 +5360,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -4771,7 +5383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -4794,7 +5406,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4817,7 +5429,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4840,7 +5452,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4863,7 +5475,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -4886,7 +5498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -4909,7 +5521,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -4932,7 +5544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -4955,7 +5567,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4978,7 +5590,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -5001,7 +5613,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -5024,7 +5636,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>176</v>
       </c>
@@ -5047,7 +5659,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -5070,7 +5682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -5093,7 +5705,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -5116,7 +5728,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -5139,7 +5751,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>199</v>
       </c>
@@ -5162,7 +5774,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -5185,7 +5797,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -5208,7 +5820,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -5231,7 +5843,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -5254,7 +5866,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -5277,7 +5889,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -5300,7 +5912,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>227</v>
       </c>
@@ -5323,7 +5935,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -5346,7 +5958,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -5369,7 +5981,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -5392,7 +6004,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -5415,7 +6027,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>247</v>
       </c>
@@ -5438,7 +6050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>251</v>
       </c>
@@ -5461,7 +6073,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -5484,7 +6096,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -5507,7 +6119,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>264</v>
       </c>
@@ -5530,7 +6142,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>268</v>
       </c>
@@ -5553,7 +6165,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>272</v>
       </c>
@@ -5576,7 +6188,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>277</v>
       </c>
@@ -5599,7 +6211,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -5622,7 +6234,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>286</v>
       </c>
@@ -5645,7 +6257,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>290</v>
       </c>
@@ -5668,7 +6280,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>294</v>
       </c>
@@ -5691,7 +6303,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>298</v>
       </c>
@@ -5714,7 +6326,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>302</v>
       </c>
@@ -5737,7 +6349,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>307</v>
       </c>
@@ -5760,7 +6372,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>312</v>
       </c>
@@ -5783,7 +6395,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>316</v>
       </c>
@@ -5806,7 +6418,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>320</v>
       </c>
@@ -5829,7 +6441,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>324</v>
       </c>
@@ -5852,7 +6464,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>329</v>
       </c>
@@ -5875,7 +6487,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>333</v>
       </c>
@@ -5898,7 +6510,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>337</v>
       </c>
@@ -5921,7 +6533,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>341</v>
       </c>
@@ -5944,7 +6556,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>344</v>
       </c>
@@ -5967,7 +6579,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>347</v>
       </c>
@@ -5990,7 +6602,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>351</v>
       </c>
@@ -6013,7 +6625,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>354</v>
       </c>
@@ -6036,7 +6648,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>358</v>
       </c>
@@ -6059,7 +6671,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>361</v>
       </c>
@@ -6082,7 +6694,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>365</v>
       </c>
@@ -6105,7 +6717,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>369</v>
       </c>
@@ -6128,7 +6740,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>373</v>
       </c>
@@ -6151,7 +6763,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>377</v>
       </c>
@@ -6174,7 +6786,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>382</v>
       </c>
@@ -6197,7 +6809,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>386</v>
       </c>
@@ -6220,7 +6832,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -6243,7 +6855,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>394</v>
       </c>
@@ -6266,7 +6878,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>398</v>
       </c>
@@ -6289,7 +6901,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>401</v>
       </c>
@@ -6312,7 +6924,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>405</v>
       </c>
@@ -6335,7 +6947,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>409</v>
       </c>
@@ -6358,7 +6970,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>413</v>
       </c>
@@ -6381,7 +6993,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>416</v>
       </c>
@@ -6404,7 +7016,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>420</v>
       </c>
@@ -6427,7 +7039,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>424</v>
       </c>
@@ -6450,7 +7062,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>427</v>
       </c>
@@ -6473,7 +7085,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>430</v>
       </c>
@@ -6496,7 +7108,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>433</v>
       </c>
@@ -6519,7 +7131,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>438</v>
       </c>
@@ -6542,7 +7154,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>442</v>
       </c>
@@ -6565,7 +7177,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>445</v>
       </c>
@@ -6588,7 +7200,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>449</v>
       </c>
@@ -6611,7 +7223,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>453</v>
       </c>
@@ -6634,7 +7246,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>457</v>
       </c>
@@ -6657,7 +7269,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>460</v>
       </c>
@@ -6680,7 +7292,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>464</v>
       </c>
@@ -6703,7 +7315,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>468</v>
       </c>
@@ -6726,7 +7338,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>471</v>
       </c>
@@ -6749,7 +7361,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>475</v>
       </c>
@@ -6772,7 +7384,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>479</v>
       </c>
@@ -6795,7 +7407,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>482</v>
       </c>
@@ -6818,7 +7430,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>485</v>
       </c>
@@ -6841,7 +7453,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>489</v>
       </c>
@@ -6864,7 +7476,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>493</v>
       </c>
@@ -6887,7 +7499,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>497</v>
       </c>
@@ -6910,7 +7522,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>500</v>
       </c>
@@ -6933,7 +7545,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>504</v>
       </c>
@@ -6956,7 +7568,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>508</v>
       </c>
@@ -6979,7 +7591,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>511</v>
       </c>
@@ -7002,7 +7614,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>514</v>
       </c>
@@ -7025,7 +7637,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>517</v>
       </c>
@@ -7048,7 +7660,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>521</v>
       </c>
@@ -7071,7 +7683,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>524</v>
       </c>
@@ -7094,7 +7706,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>527</v>
       </c>
@@ -7117,7 +7729,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>530</v>
       </c>
@@ -7140,7 +7752,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>533</v>
       </c>
@@ -7163,7 +7775,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>536</v>
       </c>
@@ -7186,7 +7798,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>539</v>
       </c>
@@ -7209,7 +7821,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>543</v>
       </c>
@@ -7232,7 +7844,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>547</v>
       </c>
@@ -7255,7 +7867,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>551</v>
       </c>
@@ -7278,7 +7890,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>555</v>
       </c>
@@ -7301,7 +7913,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -7324,7 +7936,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>559</v>
       </c>
@@ -7347,7 +7959,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>562</v>
       </c>
@@ -7370,7 +7982,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>565</v>
       </c>
@@ -7393,7 +8005,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>568</v>
       </c>
@@ -7416,7 +8028,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>572</v>
       </c>
@@ -7439,7 +8051,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>575</v>
       </c>
@@ -7462,7 +8074,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>579</v>
       </c>
@@ -7485,7 +8097,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>582</v>
       </c>
@@ -7508,7 +8120,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>587</v>
       </c>
@@ -7531,7 +8143,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>591</v>
       </c>
@@ -7554,7 +8166,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>594</v>
       </c>
@@ -7577,7 +8189,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>597</v>
       </c>
@@ -7600,7 +8212,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>600</v>
       </c>
@@ -7623,7 +8235,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>603</v>
       </c>
@@ -7646,7 +8258,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>606</v>
       </c>
@@ -7669,7 +8281,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>609</v>
       </c>
@@ -7692,7 +8304,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>613</v>
       </c>
@@ -7715,7 +8327,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>617</v>
       </c>
@@ -7738,7 +8350,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>621</v>
       </c>
@@ -7761,7 +8373,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>624</v>
       </c>
@@ -7784,7 +8396,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>627</v>
       </c>
@@ -7807,7 +8419,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>630</v>
       </c>
@@ -7830,7 +8442,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>633</v>
       </c>
@@ -7853,7 +8465,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>637</v>
       </c>
@@ -7876,7 +8488,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>641</v>
       </c>
@@ -7899,7 +8511,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>645</v>
       </c>
@@ -7922,41 +8534,41 @@
         <v>648</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>649</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>650</v>
       </c>
       <c r="C165" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D165" t="s">
-        <v>649</v>
+        <v>31</v>
       </c>
       <c r="E165" t="s">
-        <v>649</v>
+        <v>4</v>
       </c>
       <c r="F165" t="s">
-        <v>649</v>
+        <v>47</v>
       </c>
       <c r="G165" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B166" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C166" t="s">
-        <v>296</v>
+        <v>440</v>
       </c>
       <c r="D166" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E166" t="s">
         <v>4</v>
@@ -7965,21 +8577,21 @@
         <v>47</v>
       </c>
       <c r="G166" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B167" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C167" t="s">
-        <v>440</v>
+        <v>657</v>
       </c>
       <c r="D167" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E167" t="s">
         <v>4</v>
@@ -7988,21 +8600,21 @@
         <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B168" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C168" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D168" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="E168" t="s">
         <v>4</v>
@@ -8011,21 +8623,21 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B169" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C169" t="s">
-        <v>662</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E169" t="s">
         <v>4</v>
@@ -8034,87 +8646,87 @@
         <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B170" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D170" t="s">
-        <v>62</v>
+        <v>668</v>
       </c>
       <c r="E170" t="s">
         <v>4</v>
       </c>
       <c r="F170" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>670</v>
+      </c>
+      <c r="B171" t="s">
+        <v>671</v>
+      </c>
+      <c r="C171" t="s">
+        <v>672</v>
+      </c>
+      <c r="D171" t="s">
+        <v>673</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>675</v>
+      </c>
+      <c r="B172" t="s">
+        <v>676</v>
+      </c>
+      <c r="C172" t="s">
+        <v>253</v>
+      </c>
+      <c r="D172" t="s">
+        <v>86</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
         <v>47</v>
       </c>
-      <c r="G170" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>667</v>
-      </c>
-      <c r="B171" t="s">
-        <v>668</v>
-      </c>
-      <c r="C171" t="s">
-        <v>75</v>
-      </c>
-      <c r="D171" t="s">
-        <v>669</v>
-      </c>
-      <c r="E171" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>671</v>
-      </c>
-      <c r="B172" t="s">
-        <v>672</v>
-      </c>
-      <c r="C172" t="s">
-        <v>673</v>
-      </c>
-      <c r="D172" t="s">
-        <v>674</v>
-      </c>
-      <c r="E172" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" t="s">
-        <v>11</v>
-      </c>
       <c r="G172" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B173" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C173" t="s">
-        <v>253</v>
+        <v>680</v>
       </c>
       <c r="D173" t="s">
         <v>86</v>
@@ -8126,21 +8738,21 @@
         <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B174" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C174" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D174" t="s">
-        <v>86</v>
+        <v>684</v>
       </c>
       <c r="E174" t="s">
         <v>4</v>
@@ -8149,21 +8761,21 @@
         <v>47</v>
       </c>
       <c r="G174" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B175" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C175" t="s">
-        <v>685</v>
+        <v>440</v>
       </c>
       <c r="D175" t="s">
-        <v>685</v>
+        <v>288</v>
       </c>
       <c r="E175" t="s">
         <v>4</v>
@@ -8172,18 +8784,18 @@
         <v>47</v>
       </c>
       <c r="G175" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B176" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C176" t="s">
-        <v>440</v>
+        <v>288</v>
       </c>
       <c r="D176" t="s">
         <v>288</v>
@@ -8195,21 +8807,21 @@
         <v>47</v>
       </c>
       <c r="G176" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B177" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C177" t="s">
-        <v>288</v>
+        <v>694</v>
       </c>
       <c r="D177" t="s">
-        <v>288</v>
+        <v>516</v>
       </c>
       <c r="E177" t="s">
         <v>4</v>
@@ -8218,90 +8830,90 @@
         <v>47</v>
       </c>
       <c r="G177" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B178" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C178" t="s">
-        <v>695</v>
+        <v>98</v>
       </c>
       <c r="D178" t="s">
-        <v>516</v>
+        <v>86</v>
       </c>
       <c r="E178" t="s">
         <v>4</v>
       </c>
       <c r="F178" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>699</v>
+      </c>
+      <c r="B179" t="s">
+        <v>700</v>
+      </c>
+      <c r="C179" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" t="s">
+        <v>107</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>702</v>
+      </c>
+      <c r="B180" t="s">
+        <v>703</v>
+      </c>
+      <c r="C180" t="s">
+        <v>146</v>
+      </c>
+      <c r="D180" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" t="s">
         <v>47</v>
       </c>
-      <c r="G178" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>697</v>
-      </c>
-      <c r="B179" t="s">
-        <v>698</v>
-      </c>
-      <c r="C179" t="s">
-        <v>98</v>
-      </c>
-      <c r="D179" t="s">
-        <v>86</v>
-      </c>
-      <c r="E179" t="s">
-        <v>4</v>
-      </c>
-      <c r="F179" t="s">
-        <v>5</v>
-      </c>
-      <c r="G179" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>700</v>
-      </c>
-      <c r="B180" t="s">
-        <v>701</v>
-      </c>
-      <c r="C180" t="s">
-        <v>30</v>
-      </c>
-      <c r="D180" t="s">
-        <v>107</v>
-      </c>
-      <c r="E180" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" t="s">
-        <v>11</v>
-      </c>
       <c r="G180" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B181" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C181" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D181" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E181" t="s">
         <v>4</v>
@@ -8310,44 +8922,44 @@
         <v>47</v>
       </c>
       <c r="G181" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B182" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C182" t="s">
-        <v>75</v>
+        <v>710</v>
       </c>
       <c r="D182" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="E182" t="s">
         <v>4</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B183" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C183" t="s">
-        <v>711</v>
+        <v>70</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E183" t="s">
         <v>4</v>
@@ -8356,136 +8968,136 @@
         <v>11</v>
       </c>
       <c r="G183" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B184" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C184" t="s">
-        <v>70</v>
+        <v>553</v>
       </c>
       <c r="D184" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="E184" t="s">
         <v>4</v>
       </c>
       <c r="F184" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>718</v>
+      </c>
+      <c r="B185" t="s">
+        <v>719</v>
+      </c>
+      <c r="C185" t="s">
+        <v>720</v>
+      </c>
+      <c r="D185" t="s">
+        <v>41</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>716</v>
-      </c>
-      <c r="B185" t="s">
-        <v>717</v>
-      </c>
-      <c r="C185" t="s">
-        <v>553</v>
-      </c>
-      <c r="D185" t="s">
-        <v>107</v>
-      </c>
-      <c r="E185" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>722</v>
+      </c>
+      <c r="B186" t="s">
+        <v>723</v>
+      </c>
+      <c r="C186" t="s">
+        <v>724</v>
+      </c>
+      <c r="D186" t="s">
+        <v>197</v>
+      </c>
+      <c r="E186" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>726</v>
+      </c>
+      <c r="B187" t="s">
+        <v>727</v>
+      </c>
+      <c r="C187" t="s">
+        <v>45</v>
+      </c>
+      <c r="D187" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" t="s">
         <v>5</v>
       </c>
-      <c r="G185" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>719</v>
-      </c>
-      <c r="B186" t="s">
-        <v>720</v>
-      </c>
-      <c r="C186" t="s">
-        <v>721</v>
-      </c>
-      <c r="D186" t="s">
-        <v>41</v>
-      </c>
-      <c r="E186" t="s">
-        <v>4</v>
-      </c>
-      <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>723</v>
-      </c>
-      <c r="B187" t="s">
-        <v>724</v>
-      </c>
-      <c r="C187" t="s">
-        <v>725</v>
-      </c>
-      <c r="D187" t="s">
-        <v>197</v>
-      </c>
-      <c r="E187" t="s">
-        <v>4</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>729</v>
+      </c>
+      <c r="B188" t="s">
+        <v>730</v>
+      </c>
+      <c r="C188" t="s">
+        <v>731</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188" t="s">
         <v>36</v>
       </c>
-      <c r="G187" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>727</v>
-      </c>
-      <c r="B188" t="s">
-        <v>728</v>
-      </c>
-      <c r="C188" t="s">
-        <v>45</v>
-      </c>
-      <c r="D188" t="s">
-        <v>31</v>
-      </c>
-      <c r="E188" t="s">
-        <v>4</v>
-      </c>
-      <c r="F188" t="s">
-        <v>5</v>
-      </c>
       <c r="G188" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B189" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C189" t="s">
-        <v>732</v>
+        <v>102</v>
       </c>
       <c r="D189" t="s">
-        <v>3</v>
+        <v>418</v>
       </c>
       <c r="E189" t="s">
         <v>4</v>
@@ -8494,67 +9106,67 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B190" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C190" t="s">
-        <v>102</v>
+        <v>738</v>
       </c>
       <c r="D190" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="E190" t="s">
         <v>4</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G190" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B191" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C191" t="s">
-        <v>739</v>
+        <v>213</v>
       </c>
       <c r="D191" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="E191" t="s">
         <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B192" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C192" t="s">
-        <v>213</v>
+        <v>745</v>
       </c>
       <c r="D192" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="E192" t="s">
         <v>4</v>
@@ -8563,21 +9175,21 @@
         <v>47</v>
       </c>
       <c r="G192" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B193" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C193" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D193" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="E193" t="s">
         <v>4</v>
@@ -8586,90 +9198,90 @@
         <v>47</v>
       </c>
       <c r="G193" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B194" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C194" t="s">
-        <v>750</v>
+        <v>229</v>
       </c>
       <c r="D194" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="E194" t="s">
         <v>4</v>
       </c>
       <c r="F194" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G194" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B195" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C195" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="D195" t="s">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="E195" t="s">
         <v>4</v>
       </c>
       <c r="F195" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>757</v>
+      </c>
+      <c r="B196" t="s">
+        <v>758</v>
+      </c>
+      <c r="C196" t="s">
+        <v>759</v>
+      </c>
+      <c r="D196" t="s">
+        <v>163</v>
+      </c>
+      <c r="E196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" t="s">
         <v>26</v>
       </c>
-      <c r="G195" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>755</v>
-      </c>
-      <c r="B196" t="s">
-        <v>756</v>
-      </c>
-      <c r="C196" t="s">
-        <v>339</v>
-      </c>
-      <c r="D196" t="s">
-        <v>31</v>
-      </c>
-      <c r="E196" t="s">
-        <v>4</v>
-      </c>
-      <c r="F196" t="s">
-        <v>36</v>
-      </c>
       <c r="G196" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B197" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C197" t="s">
-        <v>760</v>
+        <v>221</v>
       </c>
       <c r="D197" t="s">
-        <v>163</v>
+        <v>763</v>
       </c>
       <c r="E197" t="s">
         <v>4</v>
@@ -8678,182 +9290,182 @@
         <v>26</v>
       </c>
       <c r="G197" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B198" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C198" t="s">
-        <v>221</v>
+        <v>767</v>
       </c>
       <c r="D198" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E198" t="s">
         <v>4</v>
       </c>
       <c r="F198" t="s">
+        <v>36</v>
+      </c>
+      <c r="G198" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>770</v>
+      </c>
+      <c r="B199" t="s">
+        <v>771</v>
+      </c>
+      <c r="C199" t="s">
+        <v>772</v>
+      </c>
+      <c r="D199" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>774</v>
+      </c>
+      <c r="B200" t="s">
+        <v>775</v>
+      </c>
+      <c r="C200" t="s">
+        <v>455</v>
+      </c>
+      <c r="D200" t="s">
+        <v>126</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
         <v>26</v>
       </c>
-      <c r="G198" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>766</v>
-      </c>
-      <c r="B199" t="s">
-        <v>767</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="G200" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>777</v>
+      </c>
+      <c r="B201" t="s">
+        <v>778</v>
+      </c>
+      <c r="C201" t="s">
+        <v>477</v>
+      </c>
+      <c r="D201" t="s">
+        <v>779</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>781</v>
+      </c>
+      <c r="B202" t="s">
+        <v>782</v>
+      </c>
+      <c r="C202" t="s">
+        <v>577</v>
+      </c>
+      <c r="D202" t="s">
         <v>768</v>
       </c>
-      <c r="D199" t="s">
-        <v>769</v>
-      </c>
-      <c r="E199" t="s">
-        <v>4</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="E202" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" t="s">
         <v>36</v>
       </c>
-      <c r="G199" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>771</v>
-      </c>
-      <c r="B200" t="s">
-        <v>772</v>
-      </c>
-      <c r="C200" t="s">
-        <v>773</v>
-      </c>
-      <c r="D200" t="s">
-        <v>41</v>
-      </c>
-      <c r="E200" t="s">
-        <v>4</v>
-      </c>
-      <c r="F200" t="s">
+      <c r="G202" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>784</v>
+      </c>
+      <c r="B203" t="s">
+        <v>785</v>
+      </c>
+      <c r="C203" t="s">
+        <v>213</v>
+      </c>
+      <c r="D203" t="s">
+        <v>615</v>
+      </c>
+      <c r="E203" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" t="s">
         <v>5</v>
       </c>
-      <c r="G200" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>775</v>
-      </c>
-      <c r="B201" t="s">
-        <v>776</v>
-      </c>
-      <c r="C201" t="s">
-        <v>455</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="G203" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>787</v>
+      </c>
+      <c r="B204" t="s">
+        <v>788</v>
+      </c>
+      <c r="C204" t="s">
+        <v>90</v>
+      </c>
+      <c r="D204" t="s">
+        <v>262</v>
+      </c>
+      <c r="E204" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204" t="s">
+        <v>36</v>
+      </c>
+      <c r="G204" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>790</v>
+      </c>
+      <c r="B205" t="s">
+        <v>791</v>
+      </c>
+      <c r="C205" t="s">
+        <v>792</v>
+      </c>
+      <c r="D205" t="s">
         <v>126</v>
-      </c>
-      <c r="E201" t="s">
-        <v>4</v>
-      </c>
-      <c r="F201" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>778</v>
-      </c>
-      <c r="B202" t="s">
-        <v>779</v>
-      </c>
-      <c r="C202" t="s">
-        <v>477</v>
-      </c>
-      <c r="D202" t="s">
-        <v>780</v>
-      </c>
-      <c r="E202" t="s">
-        <v>4</v>
-      </c>
-      <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>782</v>
-      </c>
-      <c r="B203" t="s">
-        <v>783</v>
-      </c>
-      <c r="C203" t="s">
-        <v>577</v>
-      </c>
-      <c r="D203" t="s">
-        <v>769</v>
-      </c>
-      <c r="E203" t="s">
-        <v>4</v>
-      </c>
-      <c r="F203" t="s">
-        <v>36</v>
-      </c>
-      <c r="G203" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>785</v>
-      </c>
-      <c r="B204" t="s">
-        <v>786</v>
-      </c>
-      <c r="C204" t="s">
-        <v>213</v>
-      </c>
-      <c r="D204" t="s">
-        <v>615</v>
-      </c>
-      <c r="E204" t="s">
-        <v>4</v>
-      </c>
-      <c r="F204" t="s">
-        <v>5</v>
-      </c>
-      <c r="G204" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>788</v>
-      </c>
-      <c r="B205" t="s">
-        <v>789</v>
-      </c>
-      <c r="C205" t="s">
-        <v>90</v>
-      </c>
-      <c r="D205" t="s">
-        <v>262</v>
       </c>
       <c r="E205" t="s">
         <v>4</v>
@@ -8862,44 +9474,44 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B206" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C206" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D206" t="s">
-        <v>126</v>
+        <v>797</v>
       </c>
       <c r="E206" t="s">
         <v>4</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B207" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C207" t="s">
-        <v>797</v>
+        <v>367</v>
       </c>
       <c r="D207" t="s">
-        <v>798</v>
+        <v>356</v>
       </c>
       <c r="E207" t="s">
         <v>4</v>
@@ -8908,21 +9520,21 @@
         <v>11</v>
       </c>
       <c r="G207" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B208" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C208" t="s">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="D208" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
         <v>4</v>
@@ -8931,21 +9543,21 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B209" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C209" t="s">
-        <v>46</v>
+        <v>807</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>585</v>
       </c>
       <c r="E209" t="s">
         <v>4</v>
@@ -8954,67 +9566,67 @@
         <v>11</v>
       </c>
       <c r="G209" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B210" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C210" t="s">
-        <v>808</v>
+        <v>318</v>
       </c>
       <c r="D210" t="s">
-        <v>585</v>
+        <v>262</v>
       </c>
       <c r="E210" t="s">
         <v>4</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G210" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B211" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C211" t="s">
-        <v>318</v>
+        <v>639</v>
       </c>
       <c r="D211" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="E211" t="s">
         <v>4</v>
       </c>
       <c r="F211" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G211" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B212" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C212" t="s">
-        <v>639</v>
+        <v>288</v>
       </c>
       <c r="D212" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="E212" t="s">
         <v>4</v>
@@ -9023,67 +9635,67 @@
         <v>47</v>
       </c>
       <c r="G212" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B213" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C213" t="s">
-        <v>288</v>
+        <v>820</v>
       </c>
       <c r="D213" t="s">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="E213" t="s">
         <v>4</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G213" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B214" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C214" t="s">
-        <v>821</v>
+        <v>731</v>
       </c>
       <c r="D214" t="s">
-        <v>516</v>
+        <v>52</v>
       </c>
       <c r="E214" t="s">
         <v>4</v>
       </c>
       <c r="F214" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G214" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B215" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C215" t="s">
-        <v>732</v>
+        <v>258</v>
       </c>
       <c r="D215" t="s">
-        <v>52</v>
+        <v>827</v>
       </c>
       <c r="E215" t="s">
         <v>4</v>
@@ -9092,136 +9704,136 @@
         <v>5</v>
       </c>
       <c r="G215" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B216" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C216" t="s">
-        <v>258</v>
+        <v>831</v>
       </c>
       <c r="D216" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="E216" t="s">
         <v>4</v>
       </c>
       <c r="F216" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G216" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B217" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C217" t="s">
-        <v>832</v>
+        <v>94</v>
       </c>
       <c r="D217" t="s">
-        <v>833</v>
+        <v>41</v>
       </c>
       <c r="E217" t="s">
         <v>4</v>
       </c>
       <c r="F217" t="s">
+        <v>36</v>
+      </c>
+      <c r="G217" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>837</v>
+      </c>
+      <c r="B218" t="s">
+        <v>838</v>
+      </c>
+      <c r="C218" t="s">
+        <v>839</v>
+      </c>
+      <c r="D218" t="s">
+        <v>52</v>
+      </c>
+      <c r="E218" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>835</v>
-      </c>
-      <c r="B218" t="s">
-        <v>836</v>
-      </c>
-      <c r="C218" t="s">
-        <v>94</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="G218" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>841</v>
+      </c>
+      <c r="B219" t="s">
+        <v>842</v>
+      </c>
+      <c r="C219" t="s">
         <v>41</v>
       </c>
-      <c r="E218" t="s">
-        <v>4</v>
-      </c>
-      <c r="F218" t="s">
+      <c r="D219" t="s">
+        <v>288</v>
+      </c>
+      <c r="E219" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" t="s">
+        <v>26</v>
+      </c>
+      <c r="G219" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>844</v>
+      </c>
+      <c r="B220" t="s">
+        <v>845</v>
+      </c>
+      <c r="C220" t="s">
+        <v>120</v>
+      </c>
+      <c r="D220" t="s">
+        <v>516</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
         <v>36</v>
       </c>
-      <c r="G218" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>838</v>
-      </c>
-      <c r="B219" t="s">
-        <v>839</v>
-      </c>
-      <c r="C219" t="s">
-        <v>840</v>
-      </c>
-      <c r="D219" t="s">
-        <v>52</v>
-      </c>
-      <c r="E219" t="s">
-        <v>4</v>
-      </c>
-      <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>842</v>
-      </c>
-      <c r="B220" t="s">
-        <v>843</v>
-      </c>
-      <c r="C220" t="s">
-        <v>41</v>
-      </c>
-      <c r="D220" t="s">
-        <v>288</v>
-      </c>
-      <c r="E220" t="s">
-        <v>4</v>
-      </c>
-      <c r="F220" t="s">
-        <v>26</v>
-      </c>
       <c r="G220" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B221" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C221" t="s">
-        <v>120</v>
+        <v>749</v>
       </c>
       <c r="D221" t="s">
-        <v>516</v>
+        <v>126</v>
       </c>
       <c r="E221" t="s">
         <v>4</v>
@@ -9230,44 +9842,44 @@
         <v>36</v>
       </c>
       <c r="G221" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B222" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C222" t="s">
-        <v>750</v>
+        <v>852</v>
       </c>
       <c r="D222" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E222" t="s">
         <v>4</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G222" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B223" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C223" t="s">
-        <v>853</v>
+        <v>279</v>
       </c>
       <c r="D223" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="E223" t="s">
         <v>4</v>
@@ -9276,21 +9888,21 @@
         <v>26</v>
       </c>
       <c r="G223" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B224" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C224" t="s">
-        <v>279</v>
+        <v>859</v>
       </c>
       <c r="D224" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E224" t="s">
         <v>4</v>
@@ -9299,21 +9911,21 @@
         <v>26</v>
       </c>
       <c r="G224" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B225" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C225" t="s">
-        <v>860</v>
+        <v>138</v>
       </c>
       <c r="D225" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="E225" t="s">
         <v>4</v>
@@ -9322,228 +9934,228 @@
         <v>26</v>
       </c>
       <c r="G225" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B226" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C226" t="s">
-        <v>138</v>
+        <v>745</v>
       </c>
       <c r="D226" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="E226" t="s">
         <v>4</v>
       </c>
       <c r="F226" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G226" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B227" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C227" t="s">
-        <v>746</v>
+        <v>869</v>
       </c>
       <c r="D227" t="s">
+        <v>870</v>
+      </c>
+      <c r="E227" t="s">
+        <v>4</v>
+      </c>
+      <c r="F227" t="s">
+        <v>5</v>
+      </c>
+      <c r="G227" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>872</v>
+      </c>
+      <c r="B228" t="s">
+        <v>873</v>
+      </c>
+      <c r="C228" t="s">
+        <v>407</v>
+      </c>
+      <c r="D228" t="s">
+        <v>107</v>
+      </c>
+      <c r="E228" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228" t="s">
+        <v>47</v>
+      </c>
+      <c r="G228" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>875</v>
+      </c>
+      <c r="B229" t="s">
+        <v>876</v>
+      </c>
+      <c r="C229" t="s">
+        <v>447</v>
+      </c>
+      <c r="D229" t="s">
+        <v>827</v>
+      </c>
+      <c r="E229" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" t="s">
+        <v>5</v>
+      </c>
+      <c r="G229" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>878</v>
+      </c>
+      <c r="B230" t="s">
+        <v>879</v>
+      </c>
+      <c r="C230" t="s">
+        <v>403</v>
+      </c>
+      <c r="D230" t="s">
+        <v>880</v>
+      </c>
+      <c r="E230" t="s">
+        <v>4</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="G230" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>882</v>
+      </c>
+      <c r="B231" t="s">
+        <v>883</v>
+      </c>
+      <c r="C231" t="s">
+        <v>171</v>
+      </c>
+      <c r="D231" t="s">
+        <v>266</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" t="s">
+        <v>47</v>
+      </c>
+      <c r="G231" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>885</v>
+      </c>
+      <c r="B232" t="s">
+        <v>886</v>
+      </c>
+      <c r="C232" t="s">
+        <v>384</v>
+      </c>
+      <c r="D232" t="s">
+        <v>171</v>
+      </c>
+      <c r="E232" t="s">
+        <v>4</v>
+      </c>
+      <c r="F232" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>888</v>
+      </c>
+      <c r="B233" t="s">
+        <v>889</v>
+      </c>
+      <c r="C233" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" t="s">
+        <v>52</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233" t="s">
+        <v>5</v>
+      </c>
+      <c r="G233" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>891</v>
+      </c>
+      <c r="B234" t="s">
+        <v>892</v>
+      </c>
+      <c r="C234" t="s">
+        <v>411</v>
+      </c>
+      <c r="D234" t="s">
         <v>41</v>
       </c>
-      <c r="E227" t="s">
-        <v>4</v>
-      </c>
-      <c r="F227" t="s">
-        <v>47</v>
-      </c>
-      <c r="G227" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>868</v>
-      </c>
-      <c r="B228" t="s">
-        <v>869</v>
-      </c>
-      <c r="C228" t="s">
-        <v>870</v>
-      </c>
-      <c r="D228" t="s">
-        <v>871</v>
-      </c>
-      <c r="E228" t="s">
-        <v>4</v>
-      </c>
-      <c r="F228" t="s">
-        <v>5</v>
-      </c>
-      <c r="G228" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>873</v>
-      </c>
-      <c r="B229" t="s">
-        <v>874</v>
-      </c>
-      <c r="C229" t="s">
-        <v>407</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="E234" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>894</v>
+      </c>
+      <c r="B235" t="s">
+        <v>895</v>
+      </c>
+      <c r="C235" t="s">
+        <v>896</v>
+      </c>
+      <c r="D235" t="s">
         <v>107</v>
-      </c>
-      <c r="E229" t="s">
-        <v>4</v>
-      </c>
-      <c r="F229" t="s">
-        <v>47</v>
-      </c>
-      <c r="G229" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>876</v>
-      </c>
-      <c r="B230" t="s">
-        <v>877</v>
-      </c>
-      <c r="C230" t="s">
-        <v>447</v>
-      </c>
-      <c r="D230" t="s">
-        <v>828</v>
-      </c>
-      <c r="E230" t="s">
-        <v>4</v>
-      </c>
-      <c r="F230" t="s">
-        <v>5</v>
-      </c>
-      <c r="G230" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>879</v>
-      </c>
-      <c r="B231" t="s">
-        <v>880</v>
-      </c>
-      <c r="C231" t="s">
-        <v>403</v>
-      </c>
-      <c r="D231" t="s">
-        <v>881</v>
-      </c>
-      <c r="E231" t="s">
-        <v>4</v>
-      </c>
-      <c r="F231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>883</v>
-      </c>
-      <c r="B232" t="s">
-        <v>884</v>
-      </c>
-      <c r="C232" t="s">
-        <v>171</v>
-      </c>
-      <c r="D232" t="s">
-        <v>266</v>
-      </c>
-      <c r="E232" t="s">
-        <v>4</v>
-      </c>
-      <c r="F232" t="s">
-        <v>47</v>
-      </c>
-      <c r="G232" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>886</v>
-      </c>
-      <c r="B233" t="s">
-        <v>887</v>
-      </c>
-      <c r="C233" t="s">
-        <v>384</v>
-      </c>
-      <c r="D233" t="s">
-        <v>171</v>
-      </c>
-      <c r="E233" t="s">
-        <v>4</v>
-      </c>
-      <c r="F233" t="s">
-        <v>11</v>
-      </c>
-      <c r="G233" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>889</v>
-      </c>
-      <c r="B234" t="s">
-        <v>890</v>
-      </c>
-      <c r="C234" t="s">
-        <v>30</v>
-      </c>
-      <c r="D234" t="s">
-        <v>52</v>
-      </c>
-      <c r="E234" t="s">
-        <v>4</v>
-      </c>
-      <c r="F234" t="s">
-        <v>5</v>
-      </c>
-      <c r="G234" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>892</v>
-      </c>
-      <c r="B235" t="s">
-        <v>893</v>
-      </c>
-      <c r="C235" t="s">
-        <v>411</v>
-      </c>
-      <c r="D235" t="s">
-        <v>41</v>
       </c>
       <c r="E235" t="s">
         <v>4</v>
@@ -9552,21 +10164,21 @@
         <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B236" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C236" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D236" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E236" t="s">
         <v>4</v>
@@ -9575,205 +10187,205 @@
         <v>11</v>
       </c>
       <c r="G236" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B237" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C237" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D237" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" t="s">
+        <v>4</v>
+      </c>
+      <c r="F237" t="s">
+        <v>36</v>
+      </c>
+      <c r="G237" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>906</v>
+      </c>
+      <c r="B238" t="s">
+        <v>907</v>
+      </c>
+      <c r="C238" t="s">
+        <v>589</v>
+      </c>
+      <c r="D238" t="s">
+        <v>107</v>
+      </c>
+      <c r="E238" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>909</v>
+      </c>
+      <c r="B239" t="s">
+        <v>910</v>
+      </c>
+      <c r="C239" t="s">
+        <v>314</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
+        <v>4</v>
+      </c>
+      <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>912</v>
+      </c>
+      <c r="B240" t="s">
+        <v>913</v>
+      </c>
+      <c r="C240" t="s">
+        <v>94</v>
+      </c>
+      <c r="D240" t="s">
+        <v>46</v>
+      </c>
+      <c r="E240" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>915</v>
+      </c>
+      <c r="B241" t="s">
+        <v>916</v>
+      </c>
+      <c r="C241" t="s">
+        <v>917</v>
+      </c>
+      <c r="D241" t="s">
+        <v>171</v>
+      </c>
+      <c r="E241" t="s">
+        <v>4</v>
+      </c>
+      <c r="F241" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>919</v>
+      </c>
+      <c r="B242" t="s">
+        <v>920</v>
+      </c>
+      <c r="C242" t="s">
+        <v>258</v>
+      </c>
+      <c r="D242" t="s">
+        <v>380</v>
+      </c>
+      <c r="E242" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" t="s">
+        <v>47</v>
+      </c>
+      <c r="G242" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>922</v>
+      </c>
+      <c r="B243" t="s">
+        <v>923</v>
+      </c>
+      <c r="C243" t="s">
+        <v>363</v>
+      </c>
+      <c r="D243" t="s">
+        <v>924</v>
+      </c>
+      <c r="E243" t="s">
+        <v>4</v>
+      </c>
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+      <c r="G243" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>925</v>
+      </c>
+      <c r="B244" t="s">
+        <v>926</v>
+      </c>
+      <c r="C244" t="s">
+        <v>56</v>
+      </c>
+      <c r="D244" t="s">
         <v>41</v>
       </c>
-      <c r="E237" t="s">
-        <v>4</v>
-      </c>
-      <c r="F237" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>903</v>
-      </c>
-      <c r="B238" t="s">
-        <v>904</v>
-      </c>
-      <c r="C238" t="s">
-        <v>905</v>
-      </c>
-      <c r="D238" t="s">
-        <v>46</v>
-      </c>
-      <c r="E238" t="s">
-        <v>4</v>
-      </c>
-      <c r="F238" t="s">
-        <v>36</v>
-      </c>
-      <c r="G238" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>907</v>
-      </c>
-      <c r="B239" t="s">
-        <v>908</v>
-      </c>
-      <c r="C239" t="s">
-        <v>589</v>
-      </c>
-      <c r="D239" t="s">
-        <v>107</v>
-      </c>
-      <c r="E239" t="s">
-        <v>4</v>
-      </c>
-      <c r="F239" t="s">
-        <v>5</v>
-      </c>
-      <c r="G239" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>910</v>
-      </c>
-      <c r="B240" t="s">
-        <v>911</v>
-      </c>
-      <c r="C240" t="s">
-        <v>314</v>
-      </c>
-      <c r="D240" t="s">
-        <v>10</v>
-      </c>
-      <c r="E240" t="s">
-        <v>4</v>
-      </c>
-      <c r="F240" t="s">
-        <v>36</v>
-      </c>
-      <c r="G240" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>913</v>
-      </c>
-      <c r="B241" t="s">
-        <v>914</v>
-      </c>
-      <c r="C241" t="s">
-        <v>94</v>
-      </c>
-      <c r="D241" t="s">
-        <v>46</v>
-      </c>
-      <c r="E241" t="s">
-        <v>4</v>
-      </c>
-      <c r="F241" t="s">
-        <v>5</v>
-      </c>
-      <c r="G241" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>916</v>
-      </c>
-      <c r="B242" t="s">
-        <v>917</v>
-      </c>
-      <c r="C242" t="s">
-        <v>918</v>
-      </c>
-      <c r="D242" t="s">
-        <v>171</v>
-      </c>
-      <c r="E242" t="s">
-        <v>4</v>
-      </c>
-      <c r="F242" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>920</v>
-      </c>
-      <c r="B243" t="s">
-        <v>921</v>
-      </c>
-      <c r="C243" t="s">
-        <v>258</v>
-      </c>
-      <c r="D243" t="s">
-        <v>380</v>
-      </c>
-      <c r="E243" t="s">
-        <v>4</v>
-      </c>
-      <c r="F243" t="s">
+      <c r="E244" t="s">
+        <v>4</v>
+      </c>
+      <c r="F244" t="s">
         <v>47</v>
       </c>
-      <c r="G243" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>923</v>
-      </c>
-      <c r="B244" t="s">
-        <v>924</v>
-      </c>
-      <c r="C244" t="s">
-        <v>363</v>
-      </c>
-      <c r="D244" t="s">
-        <v>925</v>
-      </c>
-      <c r="E244" t="s">
-        <v>4</v>
-      </c>
-      <c r="F244" t="s">
-        <v>11</v>
-      </c>
       <c r="G244" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B245" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C245" t="s">
-        <v>56</v>
+        <v>930</v>
       </c>
       <c r="D245" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E245" t="s">
         <v>4</v>
@@ -9782,90 +10394,90 @@
         <v>47</v>
       </c>
       <c r="G245" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B246" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C246" t="s">
-        <v>931</v>
+        <v>335</v>
       </c>
       <c r="D246" t="s">
-        <v>57</v>
+        <v>934</v>
       </c>
       <c r="E246" t="s">
         <v>4</v>
       </c>
       <c r="F246" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>936</v>
+      </c>
+      <c r="B247" t="s">
+        <v>937</v>
+      </c>
+      <c r="C247" t="s">
+        <v>288</v>
+      </c>
+      <c r="D247" t="s">
+        <v>41</v>
+      </c>
+      <c r="E247" t="s">
+        <v>4</v>
+      </c>
+      <c r="F247" t="s">
         <v>47</v>
       </c>
-      <c r="G246" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>933</v>
-      </c>
-      <c r="B247" t="s">
-        <v>934</v>
-      </c>
-      <c r="C247" t="s">
-        <v>335</v>
-      </c>
-      <c r="D247" t="s">
-        <v>935</v>
-      </c>
-      <c r="E247" t="s">
-        <v>4</v>
-      </c>
-      <c r="F247" t="s">
-        <v>5</v>
-      </c>
       <c r="G247" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B248" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C248" t="s">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>41</v>
+        <v>779</v>
       </c>
       <c r="E248" t="s">
         <v>4</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G248" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B249" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>944</v>
       </c>
       <c r="D249" t="s">
-        <v>780</v>
+        <v>254</v>
       </c>
       <c r="E249" t="s">
         <v>4</v>
@@ -9874,67 +10486,67 @@
         <v>11</v>
       </c>
       <c r="G249" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B250" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C250" t="s">
-        <v>945</v>
+        <v>318</v>
       </c>
       <c r="D250" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="E250" t="s">
         <v>4</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G250" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B251" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C251" t="s">
-        <v>318</v>
+        <v>951</v>
       </c>
       <c r="D251" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="E251" t="s">
         <v>4</v>
       </c>
       <c r="F251" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>950</v>
+        <v>59</v>
       </c>
       <c r="B252" t="s">
-        <v>951</v>
+        <v>60</v>
       </c>
       <c r="C252" t="s">
-        <v>952</v>
+        <v>61</v>
       </c>
       <c r="D252" t="s">
-        <v>380</v>
+        <v>62</v>
       </c>
       <c r="E252" t="s">
         <v>4</v>
@@ -9943,21 +10555,21 @@
         <v>36</v>
       </c>
       <c r="G252" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>59</v>
-      </c>
       <c r="B253" t="s">
-        <v>60</v>
+        <v>954</v>
       </c>
       <c r="C253" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D253" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="E253" t="s">
         <v>4</v>
@@ -9966,44 +10578,44 @@
         <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B254" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C254" t="s">
-        <v>163</v>
+        <v>792</v>
       </c>
       <c r="D254" t="s">
-        <v>107</v>
+        <v>611</v>
       </c>
       <c r="E254" t="s">
         <v>4</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G254" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B255" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C255" t="s">
-        <v>793</v>
+        <v>961</v>
       </c>
       <c r="D255" t="s">
-        <v>611</v>
+        <v>31</v>
       </c>
       <c r="E255" t="s">
         <v>4</v>
@@ -10012,44 +10624,44 @@
         <v>26</v>
       </c>
       <c r="G255" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B256" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C256" t="s">
-        <v>962</v>
+        <v>322</v>
       </c>
       <c r="D256" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="E256" t="s">
         <v>4</v>
       </c>
       <c r="F256" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G256" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B257" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C257" t="s">
-        <v>322</v>
+        <v>171</v>
       </c>
       <c r="D257" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E257" t="s">
         <v>4</v>
@@ -10058,44 +10670,44 @@
         <v>11</v>
       </c>
       <c r="G257" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B258" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C258" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D258" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="E258" t="s">
         <v>4</v>
       </c>
       <c r="F258" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G258" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B259" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C259" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D259" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="E259" t="s">
         <v>4</v>
@@ -10104,90 +10716,90 @@
         <v>47</v>
       </c>
       <c r="G259" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B260" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C260" t="s">
-        <v>146</v>
+        <v>975</v>
       </c>
       <c r="D260" t="s">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="E260" t="s">
         <v>4</v>
       </c>
       <c r="F260" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>977</v>
+      </c>
+      <c r="B261" t="s">
+        <v>978</v>
+      </c>
+      <c r="C261" t="s">
+        <v>75</v>
+      </c>
+      <c r="D261" t="s">
+        <v>31</v>
+      </c>
+      <c r="E261" t="s">
+        <v>4</v>
+      </c>
+      <c r="F261" t="s">
         <v>47</v>
       </c>
-      <c r="G260" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>974</v>
-      </c>
-      <c r="B261" t="s">
-        <v>975</v>
-      </c>
-      <c r="C261" t="s">
-        <v>976</v>
-      </c>
-      <c r="D261" t="s">
-        <v>41</v>
-      </c>
-      <c r="E261" t="s">
-        <v>4</v>
-      </c>
-      <c r="F261" t="s">
-        <v>5</v>
-      </c>
       <c r="G261" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B262" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C262" t="s">
-        <v>75</v>
+        <v>647</v>
       </c>
       <c r="D262" t="s">
-        <v>31</v>
+        <v>763</v>
       </c>
       <c r="E262" t="s">
         <v>4</v>
       </c>
       <c r="F262" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G262" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B263" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C263" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="D263" t="s">
-        <v>764</v>
+        <v>121</v>
       </c>
       <c r="E263" t="s">
         <v>4</v>
@@ -10196,44 +10808,44 @@
         <v>26</v>
       </c>
       <c r="G263" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B264" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C264" t="s">
-        <v>658</v>
+        <v>217</v>
       </c>
       <c r="D264" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="E264" t="s">
         <v>4</v>
       </c>
       <c r="F264" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G264" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B265" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C265" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D265" t="s">
-        <v>674</v>
+        <v>107</v>
       </c>
       <c r="E265" t="s">
         <v>4</v>
@@ -10242,21 +10854,21 @@
         <v>5</v>
       </c>
       <c r="G265" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B266" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C266" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="D266" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="E266" t="s">
         <v>4</v>
@@ -10265,159 +10877,159 @@
         <v>5</v>
       </c>
       <c r="G266" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B267" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C267" t="s">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="D267" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="E267" t="s">
         <v>4</v>
       </c>
       <c r="F267" t="s">
+        <v>11</v>
+      </c>
+      <c r="G267" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>998</v>
+      </c>
+      <c r="B268" t="s">
+        <v>999</v>
+      </c>
+      <c r="C268" t="s">
+        <v>80</v>
+      </c>
+      <c r="D268" t="s">
+        <v>62</v>
+      </c>
+      <c r="E268" t="s">
+        <v>4</v>
+      </c>
+      <c r="F268" t="s">
+        <v>47</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C269" t="s">
+        <v>767</v>
+      </c>
+      <c r="D269" t="s">
+        <v>52</v>
+      </c>
+      <c r="E269" t="s">
+        <v>4</v>
+      </c>
+      <c r="F269" t="s">
+        <v>11</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C270" t="s">
+        <v>191</v>
+      </c>
+      <c r="D270" t="s">
+        <v>192</v>
+      </c>
+      <c r="E270" t="s">
+        <v>4</v>
+      </c>
+      <c r="F270" t="s">
+        <v>36</v>
+      </c>
+      <c r="G270" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C271" t="s">
+        <v>146</v>
+      </c>
+      <c r="D271" t="s">
+        <v>146</v>
+      </c>
+      <c r="E271" t="s">
+        <v>4</v>
+      </c>
+      <c r="F271" t="s">
+        <v>47</v>
+      </c>
+      <c r="G271" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D272" t="s">
+        <v>57</v>
+      </c>
+      <c r="E272" t="s">
+        <v>4</v>
+      </c>
+      <c r="F272" t="s">
         <v>5</v>
       </c>
-      <c r="G267" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>996</v>
-      </c>
-      <c r="B268" t="s">
-        <v>997</v>
-      </c>
-      <c r="C268" t="s">
-        <v>549</v>
-      </c>
-      <c r="D268" t="s">
-        <v>107</v>
-      </c>
-      <c r="E268" t="s">
-        <v>4</v>
-      </c>
-      <c r="F268" t="s">
-        <v>11</v>
-      </c>
-      <c r="G268" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>999</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C269" t="s">
-        <v>80</v>
-      </c>
-      <c r="D269" t="s">
-        <v>62</v>
-      </c>
-      <c r="E269" t="s">
-        <v>4</v>
-      </c>
-      <c r="F269" t="s">
-        <v>47</v>
-      </c>
-      <c r="G269" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C270" t="s">
-        <v>768</v>
-      </c>
-      <c r="D270" t="s">
-        <v>52</v>
-      </c>
-      <c r="E270" t="s">
-        <v>4</v>
-      </c>
-      <c r="F270" t="s">
-        <v>11</v>
-      </c>
-      <c r="G270" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C271" t="s">
-        <v>191</v>
-      </c>
-      <c r="D271" t="s">
-        <v>192</v>
-      </c>
-      <c r="E271" t="s">
-        <v>4</v>
-      </c>
-      <c r="F271" t="s">
-        <v>36</v>
-      </c>
-      <c r="G271" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C272" t="s">
-        <v>146</v>
-      </c>
-      <c r="D272" t="s">
-        <v>146</v>
-      </c>
-      <c r="E272" t="s">
-        <v>4</v>
-      </c>
-      <c r="F272" t="s">
-        <v>47</v>
-      </c>
       <c r="G272" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B273" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C273" t="s">
-        <v>1011</v>
+        <v>318</v>
       </c>
       <c r="D273" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E273" t="s">
         <v>4</v>
@@ -10426,44 +11038,44 @@
         <v>5</v>
       </c>
       <c r="G273" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B274" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C274" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="D274" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="E274" t="s">
         <v>4</v>
       </c>
       <c r="F274" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G274" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B275" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C275" t="s">
-        <v>233</v>
+        <v>1020</v>
       </c>
       <c r="D275" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="E275" t="s">
         <v>4</v>
@@ -10472,182 +11084,182 @@
         <v>26</v>
       </c>
       <c r="G275" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B276" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C276" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D276" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E276" t="s">
+        <v>4</v>
+      </c>
+      <c r="F276" t="s">
+        <v>36</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C277" t="s">
+        <v>233</v>
+      </c>
+      <c r="D277" t="s">
         <v>107</v>
       </c>
-      <c r="E276" t="s">
-        <v>4</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="E277" t="s">
+        <v>4</v>
+      </c>
+      <c r="F277" t="s">
+        <v>11</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D278" t="s">
+        <v>41</v>
+      </c>
+      <c r="E278" t="s">
+        <v>4</v>
+      </c>
+      <c r="F278" t="s">
+        <v>47</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C279" t="s">
+        <v>304</v>
+      </c>
+      <c r="D279" t="s">
+        <v>870</v>
+      </c>
+      <c r="E279" t="s">
+        <v>4</v>
+      </c>
+      <c r="F279" t="s">
+        <v>11</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E280" t="s">
+        <v>4</v>
+      </c>
+      <c r="F280" t="s">
+        <v>5</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C281" t="s">
+        <v>363</v>
+      </c>
+      <c r="D281" t="s">
+        <v>102</v>
+      </c>
+      <c r="E281" t="s">
+        <v>4</v>
+      </c>
+      <c r="F281" t="s">
         <v>26</v>
       </c>
-      <c r="G276" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E277" t="s">
-        <v>4</v>
-      </c>
-      <c r="F277" t="s">
-        <v>36</v>
-      </c>
-      <c r="G277" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C278" t="s">
-        <v>233</v>
-      </c>
-      <c r="D278" t="s">
-        <v>107</v>
-      </c>
-      <c r="E278" t="s">
-        <v>4</v>
-      </c>
-      <c r="F278" t="s">
-        <v>11</v>
-      </c>
-      <c r="G278" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D279" t="s">
-        <v>41</v>
-      </c>
-      <c r="E279" t="s">
-        <v>4</v>
-      </c>
-      <c r="F279" t="s">
-        <v>47</v>
-      </c>
-      <c r="G279" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="G281" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C282" t="s">
         <v>304</v>
       </c>
-      <c r="D280" t="s">
-        <v>871</v>
-      </c>
-      <c r="E280" t="s">
-        <v>4</v>
-      </c>
-      <c r="F280" t="s">
-        <v>11</v>
-      </c>
-      <c r="G280" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E281" t="s">
-        <v>4</v>
-      </c>
-      <c r="F281" t="s">
+      <c r="D282" t="s">
+        <v>126</v>
+      </c>
+      <c r="E282" t="s">
+        <v>4</v>
+      </c>
+      <c r="F282" t="s">
         <v>5</v>
       </c>
-      <c r="G281" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C282" t="s">
-        <v>363</v>
-      </c>
-      <c r="D282" t="s">
-        <v>102</v>
-      </c>
-      <c r="E282" t="s">
-        <v>4</v>
-      </c>
-      <c r="F282" t="s">
-        <v>26</v>
-      </c>
       <c r="G282" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B283" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C283" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="D283" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="E283" t="s">
         <v>4</v>
@@ -10656,44 +11268,44 @@
         <v>5</v>
       </c>
       <c r="G283" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>1049</v>
+        <v>815</v>
       </c>
       <c r="B284" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C284" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="D284" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E284" t="s">
         <v>4</v>
       </c>
       <c r="F284" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G284" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>816</v>
+        <v>1053</v>
       </c>
       <c r="B285" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C285" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="D285" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E285" t="s">
         <v>4</v>
@@ -10702,67 +11314,67 @@
         <v>11</v>
       </c>
       <c r="G285" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B286" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C286" t="s">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="D286" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="E286" t="s">
         <v>4</v>
       </c>
       <c r="F286" t="s">
+        <v>36</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E287" t="s">
+        <v>4</v>
+      </c>
+      <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C287" t="s">
-        <v>146</v>
-      </c>
-      <c r="D287" t="s">
+      <c r="G287" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C288" t="s">
+        <v>375</v>
+      </c>
+      <c r="D288" t="s">
         <v>31</v>
-      </c>
-      <c r="E287" t="s">
-        <v>4</v>
-      </c>
-      <c r="F287" t="s">
-        <v>36</v>
-      </c>
-      <c r="G287" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1063</v>
       </c>
       <c r="E288" t="s">
         <v>4</v>
@@ -10771,90 +11383,90 @@
         <v>11</v>
       </c>
       <c r="G288" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B289" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C289" t="s">
-        <v>375</v>
+        <v>24</v>
       </c>
       <c r="D289" t="s">
-        <v>31</v>
+        <v>516</v>
       </c>
       <c r="E289" t="s">
         <v>4</v>
       </c>
       <c r="F289" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G289" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B290" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>1072</v>
       </c>
       <c r="D290" t="s">
-        <v>516</v>
+        <v>41</v>
       </c>
       <c r="E290" t="s">
         <v>4</v>
       </c>
       <c r="F290" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G290" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B291" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="C291" t="s">
-        <v>1073</v>
+        <v>331</v>
       </c>
       <c r="D291" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="E291" t="s">
         <v>4</v>
       </c>
       <c r="F291" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G291" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B292" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C292" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="D292" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E292" t="s">
         <v>4</v>
@@ -10863,90 +11475,90 @@
         <v>26</v>
       </c>
       <c r="G292" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B293" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C293" t="s">
-        <v>283</v>
+        <v>1082</v>
       </c>
       <c r="D293" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="E293" t="s">
         <v>4</v>
       </c>
       <c r="F293" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B294" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C294" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="D294" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="E294" t="s">
         <v>4</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G294" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B295" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C295" t="s">
-        <v>1062</v>
+        <v>541</v>
       </c>
       <c r="D295" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="E295" t="s">
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G295" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B296" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C296" t="s">
-        <v>541</v>
+        <v>1092</v>
       </c>
       <c r="D296" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E296" t="s">
         <v>4</v>
@@ -10955,44 +11567,44 @@
         <v>47</v>
       </c>
       <c r="G296" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B297" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C297" t="s">
-        <v>1093</v>
+        <v>102</v>
       </c>
       <c r="D297" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="E297" t="s">
         <v>4</v>
       </c>
       <c r="F297" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B298" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C298" t="s">
-        <v>102</v>
+        <v>749</v>
       </c>
       <c r="D298" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="E298" t="s">
         <v>4</v>
@@ -11001,67 +11613,67 @@
         <v>36</v>
       </c>
       <c r="G298" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B299" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C299" t="s">
-        <v>750</v>
+        <v>1102</v>
       </c>
       <c r="D299" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="E299" t="s">
         <v>4</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G299" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B300" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C300" t="s">
-        <v>1103</v>
+        <v>371</v>
       </c>
       <c r="D300" t="s">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="E300" t="s">
         <v>4</v>
       </c>
       <c r="F300" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G300" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B301" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C301" t="s">
-        <v>371</v>
+        <v>1109</v>
       </c>
       <c r="D301" t="s">
-        <v>516</v>
+        <v>52</v>
       </c>
       <c r="E301" t="s">
         <v>4</v>
@@ -11070,67 +11682,67 @@
         <v>5</v>
       </c>
       <c r="G301" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B302" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C302" t="s">
-        <v>1110</v>
+        <v>435</v>
       </c>
       <c r="D302" t="s">
-        <v>52</v>
+        <v>516</v>
       </c>
       <c r="E302" t="s">
         <v>4</v>
       </c>
       <c r="F302" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G302" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B303" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C303" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="D303" t="s">
-        <v>516</v>
+        <v>1116</v>
       </c>
       <c r="E303" t="s">
         <v>4</v>
       </c>
       <c r="F303" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G303" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B304" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="C304" t="s">
-        <v>371</v>
+        <v>24</v>
       </c>
       <c r="D304" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="E304" t="s">
         <v>4</v>
@@ -11139,44 +11751,44 @@
         <v>47</v>
       </c>
       <c r="G304" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B305" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="D305" t="s">
-        <v>1121</v>
+        <v>356</v>
       </c>
       <c r="E305" t="s">
         <v>4</v>
       </c>
       <c r="F305" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G305" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B306" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C306" t="s">
-        <v>447</v>
+        <v>545</v>
       </c>
       <c r="D306" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="E306" t="s">
         <v>4</v>
@@ -11185,21 +11797,21 @@
         <v>36</v>
       </c>
       <c r="G306" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B307" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C307" t="s">
-        <v>545</v>
+        <v>1130</v>
       </c>
       <c r="D307" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E307" t="s">
         <v>4</v>
@@ -11208,21 +11820,21 @@
         <v>36</v>
       </c>
       <c r="G307" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B308" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="C308" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D308" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="E308" t="s">
         <v>4</v>
@@ -11231,44 +11843,44 @@
         <v>36</v>
       </c>
       <c r="G308" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B309" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C309" t="s">
-        <v>1135</v>
+        <v>869</v>
       </c>
       <c r="D309" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E309" t="s">
         <v>4</v>
       </c>
       <c r="F309" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G309" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B310" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C310" t="s">
-        <v>870</v>
+        <v>1141</v>
       </c>
       <c r="D310" t="s">
-        <v>41</v>
+        <v>1142</v>
       </c>
       <c r="E310" t="s">
         <v>4</v>
@@ -11277,205 +11889,205 @@
         <v>11</v>
       </c>
       <c r="G310" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B311" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="C311" t="s">
-        <v>1142</v>
+        <v>541</v>
       </c>
       <c r="D311" t="s">
-        <v>1143</v>
+        <v>46</v>
       </c>
       <c r="E311" t="s">
         <v>4</v>
       </c>
       <c r="F311" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G311" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B312" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C312" t="s">
-        <v>541</v>
+        <v>440</v>
       </c>
       <c r="D312" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E312" t="s">
         <v>4</v>
       </c>
       <c r="F312" t="s">
+        <v>47</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C313" t="s">
+        <v>138</v>
+      </c>
+      <c r="D313" t="s">
+        <v>171</v>
+      </c>
+      <c r="E313" t="s">
+        <v>4</v>
+      </c>
+      <c r="F313" t="s">
+        <v>26</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C314" t="s">
+        <v>146</v>
+      </c>
+      <c r="D314" t="s">
+        <v>407</v>
+      </c>
+      <c r="E314" t="s">
+        <v>4</v>
+      </c>
+      <c r="F314" t="s">
         <v>5</v>
       </c>
-      <c r="G312" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C313" t="s">
-        <v>440</v>
-      </c>
-      <c r="D313" t="s">
+      <c r="G314" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C315" t="s">
+        <v>266</v>
+      </c>
+      <c r="D315" t="s">
+        <v>121</v>
+      </c>
+      <c r="E315" t="s">
+        <v>4</v>
+      </c>
+      <c r="F315" t="s">
+        <v>26</v>
+      </c>
+      <c r="G315" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D316" t="s">
+        <v>41</v>
+      </c>
+      <c r="E316" t="s">
+        <v>4</v>
+      </c>
+      <c r="F316" t="s">
+        <v>5</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C317" t="s">
+        <v>171</v>
+      </c>
+      <c r="D317" t="s">
+        <v>197</v>
+      </c>
+      <c r="E317" t="s">
+        <v>4</v>
+      </c>
+      <c r="F317" t="s">
+        <v>36</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C318" t="s">
+        <v>233</v>
+      </c>
+      <c r="D318" t="s">
         <v>126</v>
       </c>
-      <c r="E313" t="s">
-        <v>4</v>
-      </c>
-      <c r="F313" t="s">
+      <c r="E318" t="s">
+        <v>4</v>
+      </c>
+      <c r="F318" t="s">
         <v>47</v>
       </c>
-      <c r="G313" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C314" t="s">
-        <v>138</v>
-      </c>
-      <c r="D314" t="s">
-        <v>171</v>
-      </c>
-      <c r="E314" t="s">
-        <v>4</v>
-      </c>
-      <c r="F314" t="s">
-        <v>26</v>
-      </c>
-      <c r="G314" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C315" t="s">
-        <v>146</v>
-      </c>
-      <c r="D315" t="s">
-        <v>407</v>
-      </c>
-      <c r="E315" t="s">
-        <v>4</v>
-      </c>
-      <c r="F315" t="s">
-        <v>5</v>
-      </c>
-      <c r="G315" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C316" t="s">
-        <v>266</v>
-      </c>
-      <c r="D316" t="s">
-        <v>121</v>
-      </c>
-      <c r="E316" t="s">
-        <v>4</v>
-      </c>
-      <c r="F316" t="s">
-        <v>26</v>
-      </c>
-      <c r="G316" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D317" t="s">
+      <c r="G318" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C319" t="s">
+        <v>283</v>
+      </c>
+      <c r="D319" t="s">
         <v>41</v>
-      </c>
-      <c r="E317" t="s">
-        <v>4</v>
-      </c>
-      <c r="F317" t="s">
-        <v>5</v>
-      </c>
-      <c r="G317" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C318" t="s">
-        <v>171</v>
-      </c>
-      <c r="D318" t="s">
-        <v>197</v>
-      </c>
-      <c r="E318" t="s">
-        <v>4</v>
-      </c>
-      <c r="F318" t="s">
-        <v>36</v>
-      </c>
-      <c r="G318" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C319" t="s">
-        <v>233</v>
-      </c>
-      <c r="D319" t="s">
-        <v>126</v>
       </c>
       <c r="E319" t="s">
         <v>4</v>
@@ -11484,113 +12096,113 @@
         <v>47</v>
       </c>
       <c r="G319" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B320" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C320" t="s">
-        <v>283</v>
+        <v>1172</v>
       </c>
       <c r="D320" t="s">
+        <v>225</v>
+      </c>
+      <c r="E320" t="s">
+        <v>4</v>
+      </c>
+      <c r="F320" t="s">
+        <v>26</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D321" t="s">
+        <v>52</v>
+      </c>
+      <c r="E321" t="s">
+        <v>4</v>
+      </c>
+      <c r="F321" t="s">
+        <v>36</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C322" t="s">
+        <v>349</v>
+      </c>
+      <c r="D322" t="s">
         <v>41</v>
       </c>
-      <c r="E320" t="s">
-        <v>4</v>
-      </c>
-      <c r="F320" t="s">
+      <c r="E322" t="s">
+        <v>4</v>
+      </c>
+      <c r="F322" t="s">
+        <v>26</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C323" t="s">
+        <v>253</v>
+      </c>
+      <c r="D323" t="s">
+        <v>52</v>
+      </c>
+      <c r="E323" t="s">
+        <v>4</v>
+      </c>
+      <c r="F323" t="s">
         <v>47</v>
       </c>
-      <c r="G320" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D321" t="s">
-        <v>225</v>
-      </c>
-      <c r="E321" t="s">
-        <v>4</v>
-      </c>
-      <c r="F321" t="s">
-        <v>26</v>
-      </c>
-      <c r="G321" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D322" t="s">
-        <v>52</v>
-      </c>
-      <c r="E322" t="s">
-        <v>4</v>
-      </c>
-      <c r="F322" t="s">
-        <v>36</v>
-      </c>
-      <c r="G322" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C323" t="s">
-        <v>349</v>
-      </c>
-      <c r="D323" t="s">
-        <v>41</v>
-      </c>
-      <c r="E323" t="s">
-        <v>4</v>
-      </c>
-      <c r="F323" t="s">
-        <v>26</v>
-      </c>
       <c r="G323" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B324" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C324" t="s">
-        <v>253</v>
+        <v>767</v>
       </c>
       <c r="D324" t="s">
-        <v>52</v>
+        <v>516</v>
       </c>
       <c r="E324" t="s">
         <v>4</v>
@@ -11599,41 +12211,41 @@
         <v>47</v>
       </c>
       <c r="G324" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B325" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C325" t="s">
-        <v>768</v>
+        <v>279</v>
       </c>
       <c r="D325" t="s">
-        <v>516</v>
+        <v>41</v>
       </c>
       <c r="E325" t="s">
         <v>4</v>
       </c>
       <c r="F325" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G325" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B326" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C326" t="s">
-        <v>279</v>
+        <v>1192</v>
       </c>
       <c r="D326" t="s">
         <v>41</v>
@@ -11642,47 +12254,47 @@
         <v>4</v>
       </c>
       <c r="F326" t="s">
+        <v>5</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D327" t="s">
+        <v>163</v>
+      </c>
+      <c r="E327" t="s">
+        <v>4</v>
+      </c>
+      <c r="F327" t="s">
         <v>26</v>
       </c>
-      <c r="G326" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D327" t="s">
+      <c r="G327" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C328" t="s">
+        <v>191</v>
+      </c>
+      <c r="D328" t="s">
         <v>41</v>
-      </c>
-      <c r="E327" t="s">
-        <v>4</v>
-      </c>
-      <c r="F327" t="s">
-        <v>5</v>
-      </c>
-      <c r="G327" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D328" t="s">
-        <v>163</v>
       </c>
       <c r="E328" t="s">
         <v>4</v>
@@ -11691,133 +12303,133 @@
         <v>26</v>
       </c>
       <c r="G328" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B329" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C329" t="s">
-        <v>191</v>
+        <v>392</v>
       </c>
       <c r="D329" t="s">
+        <v>182</v>
+      </c>
+      <c r="E329" t="s">
+        <v>4</v>
+      </c>
+      <c r="F329" t="s">
+        <v>11</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C330" t="s">
+        <v>171</v>
+      </c>
+      <c r="D330" t="s">
+        <v>31</v>
+      </c>
+      <c r="E330" t="s">
+        <v>4</v>
+      </c>
+      <c r="F330" t="s">
+        <v>47</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D331" t="s">
         <v>41</v>
       </c>
-      <c r="E329" t="s">
-        <v>4</v>
-      </c>
-      <c r="F329" t="s">
-        <v>26</v>
-      </c>
-      <c r="G329" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C330" t="s">
-        <v>392</v>
-      </c>
-      <c r="D330" t="s">
-        <v>182</v>
-      </c>
-      <c r="E330" t="s">
-        <v>4</v>
-      </c>
-      <c r="F330" t="s">
+      <c r="E331" t="s">
+        <v>4</v>
+      </c>
+      <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C331" t="s">
-        <v>171</v>
-      </c>
-      <c r="D331" t="s">
-        <v>31</v>
-      </c>
-      <c r="E331" t="s">
-        <v>4</v>
-      </c>
-      <c r="F331" t="s">
+      <c r="G331" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D332" t="s">
+        <v>418</v>
+      </c>
+      <c r="E332" t="s">
+        <v>4</v>
+      </c>
+      <c r="F332" t="s">
         <v>47</v>
       </c>
-      <c r="G331" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D332" t="s">
+      <c r="G332" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C333" t="s">
+        <v>146</v>
+      </c>
+      <c r="D333" t="s">
         <v>41</v>
       </c>
-      <c r="E332" t="s">
-        <v>4</v>
-      </c>
-      <c r="F332" t="s">
-        <v>11</v>
-      </c>
-      <c r="G332" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D333" t="s">
-        <v>418</v>
-      </c>
       <c r="E333" t="s">
         <v>4</v>
       </c>
       <c r="F333" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G333" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B334" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C334" t="s">
-        <v>146</v>
+        <v>411</v>
       </c>
       <c r="D334" t="s">
         <v>41</v>
@@ -11826,21 +12438,21 @@
         <v>4</v>
       </c>
       <c r="F334" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G334" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B335" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C335" t="s">
-        <v>411</v>
+        <v>279</v>
       </c>
       <c r="D335" t="s">
         <v>41</v>
@@ -11849,47 +12461,47 @@
         <v>4</v>
       </c>
       <c r="F335" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G335" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B336" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C336" t="s">
-        <v>279</v>
+        <v>106</v>
       </c>
       <c r="D336" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E336" t="s">
         <v>4</v>
       </c>
       <c r="F336" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G336" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B337" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C337" t="s">
-        <v>106</v>
+        <v>1134</v>
       </c>
       <c r="D337" t="s">
-        <v>121</v>
+        <v>516</v>
       </c>
       <c r="E337" t="s">
         <v>4</v>
@@ -11898,67 +12510,67 @@
         <v>11</v>
       </c>
       <c r="G337" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B338" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C338" t="s">
-        <v>1135</v>
+        <v>1232</v>
       </c>
       <c r="D338" t="s">
-        <v>516</v>
+        <v>171</v>
       </c>
       <c r="E338" t="s">
         <v>4</v>
       </c>
       <c r="F338" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G338" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B339" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C339" t="s">
-        <v>1233</v>
+        <v>684</v>
       </c>
       <c r="D339" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="E339" t="s">
         <v>4</v>
       </c>
       <c r="F339" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G339" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B340" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C340" t="s">
-        <v>685</v>
+        <v>1141</v>
       </c>
       <c r="D340" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E340" t="s">
         <v>4</v>
@@ -11967,21 +12579,21 @@
         <v>36</v>
       </c>
       <c r="G340" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B341" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C341" t="s">
-        <v>1142</v>
+        <v>1242</v>
       </c>
       <c r="D341" t="s">
-        <v>31</v>
+        <v>1243</v>
       </c>
       <c r="E341" t="s">
         <v>4</v>
@@ -11990,35 +12602,11 @@
         <v>36</v>
       </c>
       <c r="G341" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D342" t="s">
         <v>1244</v>
       </c>
-      <c r="E342" t="s">
-        <v>4</v>
-      </c>
-      <c r="F342" t="s">
-        <v>36</v>
-      </c>
-      <c r="G342" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>